--- a/old_ref/X50/RAW/PROPERTY/prop.xlsx
+++ b/old_ref/X50/RAW/PROPERTY/prop.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>LC</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>K33(pN)</t>
-  </si>
-  <si>
-    <t>Scatter index</t>
-  </si>
-  <si>
-    <t>RT index</t>
   </si>
   <si>
     <t>LCT-19-580</t>
@@ -136,7 +130,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -144,7 +138,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -428,13 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,28 +473,22 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
       <c r="D2">
         <v>25</v>
       </c>
       <c r="E2">
-        <v>79.40000000000001</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="F2">
         <v>-30</v>
@@ -530,28 +520,22 @@
       <c r="O2">
         <v>15.2</v>
       </c>
-      <c r="P2">
-        <v>22.56749067328767</v>
-      </c>
-      <c r="Q2">
-        <v>11.0958904109589</v>
-      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>80.40000000000001</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="F3">
         <v>-30</v>
@@ -582,12 +566,6 @@
       </c>
       <c r="O3">
         <v>14.8</v>
-      </c>
-      <c r="P3">
-        <v>22.08438838041958</v>
-      </c>
-      <c r="Q3">
-        <v>11.25</v>
       </c>
     </row>
   </sheetData>
